--- a/data/primary_data/extract/extract_data/extract_ohdl.xlsx
+++ b/data/primary_data/extract/extract_data/extract_ohdl.xlsx
@@ -25,57 +25,57 @@
     <t>context</t>
   </si>
   <si>
+    <t>678912</t>
+  </si>
+  <si>
     <t>345678</t>
   </si>
   <si>
-    <t>678912</t>
-  </si>
-  <si>
-    <t>murder</t>
-  </si>
-  <si>
-    <t>theft</t>
-  </si>
-  <si>
-    <t>drug offences</t>
-  </si>
-  <si>
-    <t>possession of a knife</t>
+    <t>assault</t>
   </si>
   <si>
     <t>making
  threats to kill</t>
   </si>
   <si>
-    <t>assault</t>
-  </si>
-  <si>
     <t>possessing a weapon</t>
   </si>
   <si>
     <t>criminal damage</t>
+  </si>
+  <si>
+    <t>theft</t>
+  </si>
+  <si>
+    <t>driving whilst disqualified</t>
   </si>
   <si>
     <t>handling stolen
 goods</t>
   </si>
   <si>
-    <t>driving whilst disqualified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You  admitted to your crime straight away, although state you have no  recollection. You pleaded guilty to murder, and were convicted. </t>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>drug offences</t>
+  </si>
+  <si>
+    <t>possession of a knife</t>
+  </si>
+  <si>
+    <t>Analysis of offending On the 22nd March 2007 you were sentenced to an indeterminate term of  Imprisonment for Public Protection following your convictions of making  threats to kill, possessing a weapon, and two counts of assault. The  minimum term was set at 1 year and your tariff expired on the 9th  December 2008.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You were 31 years old when the index offences were committed and had a number of previous convictions for theft, criminal damage, handling stolen goods, and driving whilst disqualified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You  admitted to your crime straight away, although state you have no  recollection. You pleaded guilty to murder and were convicted. </t>
   </si>
   <si>
     <t>You have nineteen previous convictions for twenty-two offences committed  between 1986 and 1998. The majority are of an acquisitive nature and  mostly relate to theft, except for some minor drug offences.</t>
   </si>
   <si>
     <t>There are no  recorded violent offences until your index offence, although you have had  a caution for possession of a knife.</t>
-  </si>
-  <si>
-    <t>Analysis of offending On the 22nd March 2007 you were sentenced to an indeterminate term of  Imprisonment for Public Protection following your convictions of making  threats to kill, possessing a weapon, and two counts of assault. The  minimum term was set at 1 year and your tariff expired on the 9th  December 2008.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> You were 31 years old when the index offences were committed and had a number of previous convictions for theft, criminal damage, handling stolen goods, and driving whilst disqualified.</t>
   </si>
 </sst>
 </file>
@@ -469,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -480,7 +480,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -491,40 +491,40 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -535,7 +535,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -554,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
